--- a/data/raw/reforestation_age.xlsx
+++ b/data/raw/reforestation_age.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajpelu/Library/CloudStorage/GoogleDrive-ajperez@go.ugr.es/My Drive/_proyectos/adaptamed_dendro/adaptamed_dendroanalysis/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66F152CE-D0E5-BE40-9A65-40065356DF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349899D5-0233-A141-AEF0-C69B27C80A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-1080" windowWidth="33600" windowHeight="20500" xr2:uid="{F1CB0C0D-422F-4943-BB7A-772DD02319FE}"/>
   </bookViews>
@@ -55,9 +55,6 @@
     <t>PIHAL_NACIMIENTO_L</t>
   </si>
   <si>
-    <t>edad_fbonet</t>
-  </si>
-  <si>
     <t>PIHAL_RAGUA_H</t>
   </si>
   <si>
@@ -128,6 +125,9 @@
   </si>
   <si>
     <t>Aterrazado. Pero se ve regular</t>
+  </si>
+  <si>
+    <t>Bonet et al. 2003; Mesa Garrido (2019)</t>
   </si>
 </sst>
 </file>
@@ -489,7 +489,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection sqref="A1:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -508,13 +508,13 @@
         <v>1956</v>
       </c>
       <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -531,7 +531,7 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2">
         <v>1980</v>
@@ -551,7 +551,7 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3">
         <v>1980</v>
@@ -562,16 +562,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4">
         <v>1948</v>
@@ -579,19 +579,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5">
         <v>1964</v>
@@ -599,10 +599,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -611,7 +611,7 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6">
         <v>1957</v>
@@ -619,19 +619,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7">
         <v>1963</v>
@@ -639,19 +639,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8">
         <v>1963</v>
@@ -659,19 +659,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9">
         <v>1959</v>
@@ -679,19 +679,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C10" t="s">
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10">
         <v>1959</v>
@@ -699,19 +699,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11">
         <v>1956</v>
@@ -719,19 +719,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12">
         <v>1976</v>
@@ -739,19 +739,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F13">
         <v>1976</v>
@@ -759,19 +759,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F14">
         <v>1976</v>
